--- a/puppeteer/헬리녹스_list.xlsx
+++ b/puppeteer/헬리녹스_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,18 @@
       <c r="B1" t="str">
         <v>weight</v>
       </c>
+      <c r="C1" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>subCategory</v>
+      </c>
+      <c r="E1" t="str">
+        <v>company</v>
+      </c>
+      <c r="F1" t="str">
+        <v>imageUrl</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -417,6 +429,18 @@
       <c r="B2" t="str">
         <v/>
       </c>
+      <c r="C2" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D2" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E2" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310097/33100979621.20220623163340.jpg?type=f640</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -425,85 +449,217 @@
       <c r="B3">
         <v>490</v>
       </c>
+      <c r="C3" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D3" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E3" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1221329/12213292494.20230215093349.jpg?type=f640</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>헬리녹스 노나돔 4.0 텐트 6-8인용</v>
-      </c>
-      <c r="B4">
-        <v>9400</v>
+        <v>헬리녹스 코트 레그 12pcs</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D4" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E4" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3623191/36231916491.20240313040716.jpg?type=f640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>헬리녹스 테이블 원 하드탑</v>
+        <v>헬리녹스 노나돔 4.0 텐트 6-8인용</v>
       </c>
       <c r="B5">
-        <v>870</v>
+        <v>9400</v>
+      </c>
+      <c r="C5" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E5" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2123476/21234761836.20191105154120.jpg?type=f640</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>헬리녹스 체어원 re 엑스레이타이거카모</v>
+        <v>헬리녹스 택티컬 체어</v>
       </c>
       <c r="B6">
-        <v>1020</v>
+        <v>875</v>
+      </c>
+      <c r="C6" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D6" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E6" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1231014/12310144136.20230104123434.jpg?type=f640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>헬리녹스 체어원 하이백 re 블랙아웃에디션</v>
+        <v>헬리녹스 테이블 원 하드탑</v>
       </c>
       <c r="B7">
-        <v>1180</v>
+        <v>870</v>
+      </c>
+      <c r="C7" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D7" t="str">
+        <v>table</v>
+      </c>
+      <c r="E7" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2067643/20676439841.20190820110116.jpg?type=f640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>헬리녹스 선셋체어 캠핑의자</v>
+        <v>헬리녹스 체어원 하이백 re 블랙아웃에디션</v>
       </c>
       <c r="B8">
-        <v>1340</v>
+        <v>1180</v>
+      </c>
+      <c r="C8" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D8" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E8" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5312339/53123392756.20250220152733.jpg?type=f640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>헬리녹스 코트 레그 12pcs</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
+        <v>헬리녹스 선셋체어 캠핑의자</v>
+      </c>
+      <c r="B9">
+        <v>1340</v>
+      </c>
+      <c r="C9" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D9" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E9" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1499227/14992278724.20180807173747.jpg?type=f640</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>헬리녹스 택티컬 체어 라지</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
+        <v>헬리녹스 체어원 re 코요테탄</v>
+      </c>
+      <c r="B10">
+        <v>1020</v>
+      </c>
+      <c r="C10" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D10" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E10" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5312301/53123019438.20250220150117.jpg?type=f640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>헬리녹스 택티컬 선셋 체어</v>
+        <v>헬리녹스 택티컬 체어투 멀티캠 캠핑 의자</v>
       </c>
       <c r="B11">
-        <v>1480</v>
+        <v>1150</v>
+      </c>
+      <c r="C11" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D11" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E11" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4088539/40885399618.20230629143959.jpg?type=f640</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>헬리녹스 택티컬 체어</v>
-      </c>
-      <c r="B12">
-        <v>875</v>
+        <v>헬리녹스 택티컬 체어 라지</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D12" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E12" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310019/33100194620.20220623170105.jpg?type=f640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>헬리녹스 택티컬 체어투 멀티캠 캠핑 의자</v>
-      </c>
-      <c r="B13">
-        <v>1150</v>
+        <v>헬리녹스 비브람 볼핏 55mm</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D13" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E13" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393644/33936446618.20220808152353.jpg?type=f640</v>
       </c>
     </row>
     <row r="14">
@@ -513,37 +669,97 @@
       <c r="B14">
         <v>1595</v>
       </c>
+      <c r="C14" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D14" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E14" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4088206/40882069618.20230629093327.jpg?type=f640</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>헬리녹스 비브람 볼핏 55mm</v>
+        <v>헬리녹스 택티컬 스위블 체어</v>
       </c>
       <c r="B15" t="str">
         <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D15" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E15" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310243/33102433619.20220623174714.jpg?type=f640</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>헬리녹스 15주년 체어제로</v>
+        <v>헬리녹스 택티컬 선셋 체어</v>
       </c>
       <c r="B16">
-        <v>510</v>
+        <v>1480</v>
+      </c>
+      <c r="C16" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D16" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E16" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310005/33100051618.20220623151620.jpg?type=f640</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>헬리녹스 택티컬 스위블 체어</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
+        <v>헬리녹스 체어투</v>
+      </c>
+      <c r="B17">
+        <v>1240</v>
+      </c>
+      <c r="C17" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D17" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E17" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361356/33613563622.20220721103425.jpg?type=f640</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>헬리녹스 체어투</v>
+        <v>헬리녹스 체어원 Mini, 코요테탄, 1개</v>
       </c>
       <c r="B18">
-        <v>1240</v>
+        <v>485</v>
+      </c>
+      <c r="C18" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D18" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E18" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5312490/53124908459.20250220174237.jpg?type=f640</v>
       </c>
     </row>
     <row r="19">
@@ -553,69 +769,177 @@
       <c r="B19" t="str">
         <v/>
       </c>
+      <c r="C19" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D19" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E19" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400508/34005087619.20220812085033.jpg?type=f640</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>헬리녹스 택티컬 필드 커버 체어원</v>
+        <v>헬리녹스 사바나 체어 코요테탄</v>
       </c>
       <c r="B20">
-        <v>273</v>
+        <v>1800</v>
+      </c>
+      <c r="C20" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D20" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E20" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5282078/52820783986.20250205160201.jpg?type=f640</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>헬리녹스 테이블 원 하드탑 블랙아웃 에디션</v>
+        <v>헬리녹스 제로 하이백 체어</v>
       </c>
       <c r="B21" t="str">
         <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D21" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E21" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3309920/33099206619.20220623142914.jpg?type=f640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>헬리녹스 택티컬 스피드 스툴 미디움 코요테탄</v>
+        <v>헬리녹스 택티컬 테이블 M, 블랙</v>
       </c>
       <c r="B22">
-        <v>500</v>
+        <v>900</v>
+      </c>
+      <c r="C22" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D22" t="str">
+        <v>table</v>
+      </c>
+      <c r="E22" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5281869/52818695400.20250205123840.jpg?type=f640</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>헬리녹스 사바나 체어 엑스레이타이거카모</v>
+        <v>헬리녹스 체어원 XL, 차콜, 1개</v>
       </c>
       <c r="B23">
-        <v>1800</v>
+        <v>1505</v>
+      </c>
+      <c r="C23" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D23" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E23" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5312548/53125480546.20250220181003.jpg?type=f640</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>헬리녹스 체어원 Mini, 블랙, 1개</v>
-      </c>
-      <c r="B24">
-        <v>485</v>
+        <v>헬리녹스 데이지체인 2 5-4 0</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D24" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E24" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3767913/37679131571.20241002234307.jpg?type=f640</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>헬리녹스 제로 하이백 체어</v>
-      </c>
-      <c r="B25" t="str">
-        <v/>
+        <v>헬리녹스 테이블 탑 포 필드 오피스 엠 39x39, 블랙</v>
+      </c>
+      <c r="B25">
+        <v>730</v>
+      </c>
+      <c r="C25" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D25" t="str">
+        <v>table</v>
+      </c>
+      <c r="E25" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5282126/52821266602.20250205170004.jpg?type=f640</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>헬리녹스 데이지체인 2 5-4 0</v>
-      </c>
-      <c r="B26" t="str">
-        <v/>
+        <v>헬리녹스 택티컬 스피드 스툴 미디움 코요테탄</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="C26" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D26" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E26" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5232068/52320685620.20250106104759.jpg?type=f640</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>헬리녹스 택티컬 테이블 M, 블랙</v>
+        <v>헬리녹스 택티컬 테이블포</v>
       </c>
       <c r="B27">
-        <v>900</v>
+        <v>5010</v>
+      </c>
+      <c r="C27" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D27" t="str">
+        <v>table</v>
+      </c>
+      <c r="E27" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4986900/49869003627.20240820121210.jpg?type=f640</v>
       </c>
     </row>
     <row r="28">
@@ -625,389 +949,977 @@
       <c r="B28" t="str">
         <v/>
       </c>
+      <c r="C28" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D28" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E28" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400458/34004581618.20220812083618.jpg?type=f640</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>헬리녹스 테이블원 솔리드탑 상판</v>
+        <v>헬리녹스 체어원 L, 코요테탄, 1개</v>
       </c>
       <c r="B29">
-        <v>1630</v>
+        <v>1090</v>
+      </c>
+      <c r="C29" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D29" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E29" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5312490/53124908511.20250220174532.jpg?type=f640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>헬리녹스 테이블 원 하드탑 라지</v>
+        <v>헬리녹스 택티컬 필드 커버 체어원</v>
       </c>
       <c r="B30">
-        <v>1480</v>
+        <v>273</v>
+      </c>
+      <c r="C30" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D30" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E30" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3694984/36949843619.20230103142804.jpg?type=f640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>헬리녹스 택티컬 테이블 L, 블랙</v>
+        <v>헬리녹스 테이블원 솔리드탑 상판</v>
       </c>
       <c r="B31">
-        <v>1620</v>
+        <v>1630</v>
+      </c>
+      <c r="C31" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D31" t="str">
+        <v>table</v>
+      </c>
+      <c r="E31" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2402485/24024850525.20221121124832.jpg?type=f640</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>헬리녹스 코트원 컨버터블 초경량 야전침대 24년형 택티컬 필드 테이블</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+        <v>헬리녹스 그라운드 체어</v>
+      </c>
+      <c r="B32">
+        <v>620</v>
+      </c>
+      <c r="C32" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D32" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E32" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361394/33613946618.20220721104955.jpg?type=f640</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>헬리녹스 택티컬 필드오피스 큐브 테이블</v>
+        <v>헬리녹스 15주년 토르 1L, 글로우그린</v>
       </c>
       <c r="B33">
-        <v>2980</v>
+        <v>142</v>
+      </c>
+      <c r="C33" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D33" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E33" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5237903/52379038623.20250108105354.jpg?type=f640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>헬리녹스 15주년 토르 75L, 글로우블루</v>
+        <v>헬리녹스 테이블원 블랙아웃에디션</v>
       </c>
       <c r="B34">
-        <v>3750</v>
+        <v>690</v>
+      </c>
+      <c r="C34" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D34" t="str">
+        <v>table</v>
+      </c>
+      <c r="E34" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5134360/51343608619.20241111165203.jpg?type=f640</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>헬리녹스 택티컬 코트 솔로 이너 텐트 패브릭 1인용 블랙</v>
-      </c>
-      <c r="B35">
-        <v>1750</v>
+        <v>헬리녹스 테이블 원 하드탑 블랙아웃 에디션</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D35" t="str">
+        <v>table</v>
+      </c>
+      <c r="E35" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400525/34005254620.20220812092430.jpg?type=f640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>헬리녹스 택티컬 코트 솔로 이너 텐트 메쉬 1인용 플라이 포함 코요테탄</v>
+        <v>헬리녹스 택티컬 선셋 체어 스킨</v>
       </c>
       <c r="B36">
-        <v>2730</v>
+        <v>650</v>
+      </c>
+      <c r="C36" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D36" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E36" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1226130/12261307197.20170914153832.jpg?type=f640</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>헬리녹스 Helinox 플리스 코트 워머 방한 시트커버 1822312</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
+        <v>헬리녹스 테이블 원 하드탑 라지</v>
+      </c>
+      <c r="B37">
+        <v>1480</v>
+      </c>
+      <c r="C37" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D37" t="str">
+        <v>table</v>
+      </c>
+      <c r="E37" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2359403/23594031492.20200728103923.jpg?type=f640</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>헬리녹스 체어원 XL, 차콜, 1개</v>
+        <v>헬리녹스 택티컬 필드 터널 4.35 텐트 코요테탄</v>
       </c>
       <c r="B38">
-        <v>1505</v>
+        <v>13500</v>
+      </c>
+      <c r="C38" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D38" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E38" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5281849/52818496460.20250205121125.jpg?type=f640</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>헬리녹스 택티컬 사이드 스토리지 톨 S</v>
-      </c>
-      <c r="B39" t="str">
-        <v/>
+        <v>헬리녹스 택티컬 코트 솔로 이너 텐트 패브릭 1인용 블랙</v>
+      </c>
+      <c r="B39">
+        <v>1750</v>
+      </c>
+      <c r="C39" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D39" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E39" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5314593/53145937708.20250221161429.jpg?type=f640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>헬리녹스 데이지 체인 1.5-2.5m</v>
-      </c>
-      <c r="B40" t="str">
-        <v/>
+        <v>헬리녹스 15주년 체어제로</v>
+      </c>
+      <c r="B40">
+        <v>510</v>
+      </c>
+      <c r="C40" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D40" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E40" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4785496/47854967620.20240520122226.jpg?type=f640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>헬리녹스 15주년 토르 1L, 글로우그린</v>
+        <v>헬리녹스 15주년 토르 75L, 글로우블루</v>
       </c>
       <c r="B41">
-        <v>142</v>
+        <v>3750</v>
+      </c>
+      <c r="C41" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D41" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E41" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5237901/52379019636.20250108112236.jpg?type=f640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>헬리녹스 DAC 타프폴 경량 폴대 감성캠핑 1800DL</v>
-      </c>
-      <c r="B42" t="str">
-        <v/>
+        <v>헬리녹스 택티컬 코트 솔로 이너 텐트 메쉬 1인용 플라이 포함 코요테탄</v>
+      </c>
+      <c r="B42">
+        <v>2730</v>
+      </c>
+      <c r="C42" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D42" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E42" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5277909/52779090021.20250203121939.jpg?type=f640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>헬리녹스 체어원 블루 반다나 퀼트</v>
-      </c>
-      <c r="B43">
-        <v>960</v>
+        <v>헬리녹스 데이지 체인 1.5-2.5m</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D43" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E43" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361707/33617073619.20220721145345.jpg?type=f640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>헬리녹스 선셋체어 멀티 블록 캠핑의자</v>
-      </c>
-      <c r="B44">
-        <v>1470</v>
+        <v>헬리녹스 DAC 타프폴 경량 폴대 감성캠핑 1800DL</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D44" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E44" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5304366/53043660010.20250217010632.jpg?type=f640</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>헬리녹스 테이블원 블랙아웃에디션</v>
+        <v>헬리녹스 택티컬 필드 테이블 상판 블랙</v>
       </c>
       <c r="B45">
-        <v>690</v>
+        <v>2330</v>
+      </c>
+      <c r="C45" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D45" t="str">
+        <v>table</v>
+      </c>
+      <c r="E45" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5264779/52647794274.20250124123819.jpg?type=f640</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>헬리녹스 체어원 L, 코요테탄, 1개</v>
-      </c>
-      <c r="B46">
-        <v>1090</v>
+        <v>헬리녹스 택티컬 실리콘 패치 솔리드</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D46" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E46" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361711/33617113620.20220721155834.jpg?type=f640</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>헬리녹스 택티컬 선셋 체어 스킨</v>
-      </c>
-      <c r="B47">
-        <v>650</v>
+        <v>헬리녹스 택티컬 사이드 스토리지 톨 S</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D47" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E47" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3432234/34322341185.20221017155115.jpg?type=f640</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>헬리녹스 스타벅스 사이드 테이블</v>
+        <v>헬리녹스 택티컬 테이블 L, 멀티캠</v>
       </c>
       <c r="B48">
-        <v>260</v>
+        <v>1620</v>
+      </c>
+      <c r="C48" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D48" t="str">
+        <v>table</v>
+      </c>
+      <c r="E48" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5281914/52819141278.20250205124633.jpg?type=f640</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>헬리녹스 그라운드 체어</v>
+        <v>헬리녹스 필드 오피스 M 테이블</v>
       </c>
       <c r="B49">
-        <v>620</v>
+        <v>2120</v>
+      </c>
+      <c r="C49" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D49" t="str">
+        <v>table</v>
+      </c>
+      <c r="E49" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3320969/33209692619.20220630115333.jpg?type=f640</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>헬리녹스 택티컬 필드 테이블 상판 블랙</v>
+        <v>DAC 헬리녹스 테이블원 블랙</v>
       </c>
       <c r="B50">
-        <v>2330</v>
+        <v>625</v>
+      </c>
+      <c r="C50" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D50" t="str">
+        <v>table</v>
+      </c>
+      <c r="E50" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5280115/52801156838.20250204173340.jpg?type=f640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>헬리녹스 사이드 테이블 M</v>
+        <v>헬리녹스 벤치원 블랙</v>
       </c>
       <c r="B51">
-        <v>560</v>
+        <v>2100</v>
+      </c>
+      <c r="C51" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D51" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E51" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307289/53072898124.20250218123412.jpg?type=f640</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>헬리녹스 벤치원 블랙</v>
+        <v>헬리녹스 택티컬 노나돔 4.0 텐트 6-8인용 코요테탄</v>
       </c>
       <c r="B52">
-        <v>2100</v>
+        <v>9500</v>
+      </c>
+      <c r="C52" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D52" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E52" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5280129/52801297954.20250204182032.jpg?type=f640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>헬리녹스 테이블 탑 포 필드 오피스 엠 39x39, 블랙</v>
+        <v>헬리녹스 택티컬 필드오피스 큐브 테이블</v>
       </c>
       <c r="B53">
-        <v>730</v>
+        <v>2980</v>
+      </c>
+      <c r="C53" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D53" t="str">
+        <v>table</v>
+      </c>
+      <c r="E53" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3733564/37335646622.20230120110820.jpg?type=f640</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>헬리녹스 택티컬 노나돔 4.0 텐트 6-8인용 코요테탄</v>
+        <v>헬리녹스 체어원 멀티 블록</v>
       </c>
       <c r="B54">
-        <v>9500</v>
+        <v>965</v>
+      </c>
+      <c r="C54" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D54" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E54" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4134124/41341242620.20230721170141.jpg?type=f640</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>헬리녹스 테이블 오 홈 M, 월넛</v>
-      </c>
-      <c r="B55" t="str">
-        <v/>
+        <v>헬리녹스 택티컬 체어 어드밴스드 스킨</v>
+      </c>
+      <c r="B55">
+        <v>430</v>
+      </c>
+      <c r="C55" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D55" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E55" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400668/34006682618.20220812091632.jpg?type=f640</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>헬리녹스 타프폴 케이스</v>
-      </c>
-      <c r="B56" t="str">
-        <v/>
+        <v>헬리녹스 테이블 탑 포 필드 오피스 엠 39x19, 블랙</v>
+      </c>
+      <c r="B56">
+        <v>429</v>
+      </c>
+      <c r="C56" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D56" t="str">
+        <v>table</v>
+      </c>
+      <c r="E56" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5282128/52821282896.20250205170151.jpg?type=f640</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>헬리녹스 카페 테이블</v>
-      </c>
-      <c r="B57">
-        <v>4000</v>
+        <v>헬리녹스 코트 워머 커버 1822378</v>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D57" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E57" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5150985/51509852851.20241121041248.jpg?type=f640</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>헬리녹스 택티컬 체어 어드밴스드 스킨</v>
+        <v>헬리녹스 체어 원 홈 펠리컨</v>
       </c>
       <c r="B58">
-        <v>430</v>
+        <v>1626</v>
+      </c>
+      <c r="C58" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D58" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E58" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319164/53191640308.20250224163416.jpg?type=f640</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>DAC 헬리녹스 테이블원 코요테탄</v>
+        <v>헬리녹스 테이블원 하드탑 L, 블랙타이다이</v>
       </c>
       <c r="B59">
-        <v>625</v>
+        <v>1415</v>
+      </c>
+      <c r="C59" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D59" t="str">
+        <v>table</v>
+      </c>
+      <c r="E59" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5285426/52854261760.20250206103602.jpg?type=f640</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>헬리녹스 필드 오피스 M 테이블</v>
+        <v>헬리녹스 프라그먼트 디자인 택티컬 3P 돔 텐트 2-3인용</v>
       </c>
       <c r="B60">
-        <v>2120</v>
+        <v>4900</v>
+      </c>
+      <c r="C60" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D60" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E60" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4996559/49965591620.20240826145423.jpg?type=f640</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>헬리녹스 테이블 탑 포 필드 오피스 엠 39x19, 블랙</v>
+        <v>헬리녹스 체어투 엑스레이 타이거 카모 엑스레이타이거카모</v>
       </c>
       <c r="B61">
-        <v>429</v>
+        <v>1205</v>
+      </c>
+      <c r="C61" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D61" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E61" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5253945/52539455703.20250117163810.jpg?type=f640</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>헬리녹스 체어투 엑스레이 타이거 카모 엑스레이타이거카모</v>
-      </c>
-      <c r="B62">
-        <v>1205</v>
+        <v>헬리녹스 코트원 컨버터블 블루반다나퀄트</v>
+      </c>
+      <c r="B62" t="str">
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D62" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E62" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5259536/52595360622.20250121143417.jpg?type=f640</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>헬리녹스 테이블원 하드탑 L, 블랙타이다이</v>
+        <v>헬리녹스 택티컬 노나 타프 코요테탄</v>
       </c>
       <c r="B63">
-        <v>1415</v>
+        <v>1860</v>
+      </c>
+      <c r="C63" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D63" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E63" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5280012/52800120611.20250204152947.jpg?type=f640</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>헬리녹스 택티컬 필드 터널 4.35 텐트 코요테탄</v>
+        <v>헬리녹스 15주년 체어원</v>
       </c>
       <c r="B64">
-        <v>13500</v>
+        <v>965</v>
+      </c>
+      <c r="C64" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D64" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E64" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5002509/50025098619.20240828110657.jpg?type=f640</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>헬리녹스 비치 타올</v>
+        <v>헬리녹스 타프폴 DAC 2pcs 케이스포함 타프 사이드 폴대 1800FX</v>
       </c>
       <c r="B65" t="str">
         <v/>
+      </c>
+      <c r="C65" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D65" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E65" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4891932/48919328104.20240704160248.jpg?type=f640</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>헬리녹스 택티컬 노나 타프 코요테탄</v>
-      </c>
-      <c r="B66">
-        <v>1860</v>
+        <v>헬리녹스 테이블 오 홈 M, 월넛</v>
+      </c>
+      <c r="B66" t="str">
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D66" t="str">
+        <v>table</v>
+      </c>
+      <c r="E66" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5285588/52855881213.20250206140725.jpg?type=f640</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>헬리녹스 노나돔 4.0 베드룸 블랙아웃 에디션 4인용 블랙</v>
+        <v>헬리녹스 플라야 체어 블랙</v>
       </c>
       <c r="B67">
-        <v>4600</v>
+        <v>1790</v>
+      </c>
+      <c r="C67" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D67" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E67" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339326/53393266790.20250306151047.jpg?type=f640</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>헬리녹스 체어 원 홈 블랙</v>
+        <v>헬리녹스 선셋체어 엑스레이 타이거 카모 엑스레이타이거카모</v>
       </c>
       <c r="B68">
-        <v>1626</v>
+        <v>1560</v>
+      </c>
+      <c r="C68" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D68" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E68" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319002/53190021981.20250224120530.jpg?type=f640</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>헬리녹스 선셋체어 엑스레이 타이거 카모 엑스레이타이거카모</v>
-      </c>
-      <c r="B69">
-        <v>1560</v>
+        <v>헬리녹스 네이버후드 노나돔 4.0</v>
+      </c>
+      <c r="B69" t="str">
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D69" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E69" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3915170/39151703626.20230404122146.jpg?type=f640</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>헬리녹스 코트원 컨버터블 블루반다나퀄트</v>
+        <v>헬리녹스 체어 투</v>
       </c>
       <c r="B70" t="str">
         <v/>
+      </c>
+      <c r="C70" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D70" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E70" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310218/33102184618.20220623173543.jpg?type=f640</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>헬리녹스 알파인돔 1.5p 블랙아웃에디션 1인용</v>
-      </c>
-      <c r="B71">
-        <v>1840</v>
+        <v>헬리녹스 택티컬코트 컨버터블 필드 테이블</v>
+      </c>
+      <c r="B71" t="str">
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D71" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E71" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5234221/52342211470.20250109101043.jpg?type=f640</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>헬리녹스 택티컬코트 컨버터블 필드 테이블</v>
-      </c>
-      <c r="B72" t="str">
-        <v/>
+        <v>헬리녹스 선셋체어 홈</v>
+      </c>
+      <c r="B72">
+        <v>1510</v>
+      </c>
+      <c r="C72" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D72" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E72" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4697506/46975064618.20240416102924.jpg?type=f640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>헬리녹스 선셋체어 홈</v>
+        <v>헬리녹스 택티컬 필드 커버 체어투</v>
       </c>
       <c r="B73">
-        <v>1510</v>
+        <v>326</v>
+      </c>
+      <c r="C73" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D73" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E73" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3694952/36949526621.20230103142322.jpg?type=f640</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>헬리녹스 택티컬 필드 커버 체어투</v>
-      </c>
-      <c r="B74">
-        <v>326</v>
+        <v>헬리녹스 카페 체어</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D74" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E74" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3310036/33100365619.20220623160304.jpg?type=f640</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>헬리녹스 체어 투</v>
+        <v>헬리녹스 비치 타올</v>
       </c>
       <c r="B75" t="str">
         <v/>
+      </c>
+      <c r="C75" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D75" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E75" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393842/33938423619.20220809101708.jpg?type=f640</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>헬리녹스 카페 체어</v>
+        <v>헬리녹스 에어 폼 헤드레스트 캠핑 베개 필로우</v>
       </c>
       <c r="B76" t="str">
         <v/>
+      </c>
+      <c r="C76" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D76" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E76" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4278892/42788923625.20230922063026.jpg?type=f640</v>
       </c>
     </row>
     <row r="77">
@@ -1017,42 +1929,3302 @@
       <c r="B77" t="str">
         <v/>
       </c>
+      <c r="C77" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D77" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E77" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F77" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5134398/51343981713.20250117072406.jpg?type=f640</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>헬리녹스 Hello My Name Is 벨크로 패치 네임택 이름표</v>
-      </c>
-      <c r="B78" t="str">
-        <v/>
+        <v>헬리녹스 택티컬 벤치</v>
+      </c>
+      <c r="B78">
+        <v>2000</v>
+      </c>
+      <c r="C78" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D78" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E78" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3192848/31928484620.20220420142340.jpg?type=f640</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>헬리녹스 에어 폼 헤드레스트 캠핑 베개 필로우</v>
-      </c>
-      <c r="B79" t="str">
-        <v/>
+        <v>헬리녹스 스타벅스 사이드 테이블</v>
+      </c>
+      <c r="B79">
+        <v>260</v>
+      </c>
+      <c r="C79" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D79" t="str">
+        <v>table</v>
+      </c>
+      <c r="E79" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4125856/41258564619.20230718142751.jpg?type=f640</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>헬리녹스 택티컬 필드 터널 이너텐트 2인용</v>
+        <v>헬리녹스 체어원 엑스레이 타이거 카모</v>
       </c>
       <c r="B80">
-        <v>2040</v>
+        <v>965</v>
+      </c>
+      <c r="C80" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D80" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E80" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5134306/51343064623.20241111163110.jpg?type=f640</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>헬리녹스 택티컬 실리콘 패치 솔리드</v>
+        <v>헬리녹스 Hello My Name Is 벨크로 패치 네임택 이름표</v>
       </c>
       <c r="B81" t="str">
         <v/>
+      </c>
+      <c r="C81" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D81" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E81" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3096748/30967489275.20230614110540.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>헬리녹스 Helinox 플리스 코트 워머 방한 시트커버 1822312</v>
+      </c>
+      <c r="B82" t="str">
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D82" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E82" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5269987/52699871366.20250208021803.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>헬리녹스 인클라인 페스티벌 체어</v>
+      </c>
+      <c r="B83">
+        <v>1310</v>
+      </c>
+      <c r="C83" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D83" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E83" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F83" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2750468/27504685524.20230601172527.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>헬리녹스 노나돔 4.0 베드룸 블랙아웃 에디션 4인용 블랙</v>
+      </c>
+      <c r="B84">
+        <v>4600</v>
+      </c>
+      <c r="C84" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D84" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E84" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F84" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5240626/52406267618.20250109171129.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>헬리녹스 선셋체어 캠핑 경량 체어</v>
+      </c>
+      <c r="B85">
+        <v>1470</v>
+      </c>
+      <c r="C85" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D85" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E85" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F85" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2785724/27857246523.20210705101305.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>헬리녹스 소주잔 1개, 블랙</v>
+      </c>
+      <c r="B86" t="str">
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D86" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E86" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F86" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5294014/52940148218.20250212100431.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>헬리녹스 택티컬 코트 텐트 솔로 하이 타프 플라이 밀리터리탄</v>
+      </c>
+      <c r="B87">
+        <v>1760</v>
+      </c>
+      <c r="C87" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D87" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E87" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F87" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339015/53390150996.20250306103523.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>헬리녹스 선셋체어 멀티 블록 캠핑의자</v>
+      </c>
+      <c r="B88">
+        <v>1470</v>
+      </c>
+      <c r="C88" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D88" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E88" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F88" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4217819/42178198622.20230823170255.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>헬리녹스 15주년 토르 22L, 글로우그린</v>
+      </c>
+      <c r="B89">
+        <v>1520</v>
+      </c>
+      <c r="C89" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D89" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E89" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F89" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5237901/52379011627.20250108112130.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>헬리녹스 체어 볼핏 - 블랙아웃에디션 타입1</v>
+      </c>
+      <c r="B90" t="str">
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D90" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E90" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F90" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3736992/37369920956.20230628052431.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>헬리녹스 테이블 원 코요테 탄</v>
+      </c>
+      <c r="B91" t="str">
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D91" t="str">
+        <v>table</v>
+      </c>
+      <c r="E91" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F91" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393828/33938283620.20220809110016.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>헬리녹스 베이프 체어투 카모</v>
+      </c>
+      <c r="B92">
+        <v>2280</v>
+      </c>
+      <c r="C92" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D92" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E92" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F92" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5337123/53371237307.20250305120640.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>헬리녹스 스토퍼 10ea set</v>
+      </c>
+      <c r="B93" t="str">
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D93" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E93" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F93" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3088245/30882455274.20220211021533.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>헬리녹스 클래식 더플 스몰</v>
+      </c>
+      <c r="B94" t="str">
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D94" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E94" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F94" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361806/33618064618.20220721152134.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>헬리녹스 데우스 엑스 마키나 캠프 체어 블랙</v>
+      </c>
+      <c r="B95" t="str">
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D95" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E95" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F95" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5253995/52539958772.20250117180957.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>헬리녹스 볼핏 TYPE-2</v>
+      </c>
+      <c r="B96" t="str">
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D96" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E96" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F96" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5074132/50741329560.20241008234036.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>헬리녹스 라미더스 스위블 체어 블랙</v>
+      </c>
+      <c r="B97">
+        <v>1540</v>
+      </c>
+      <c r="C97" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D97" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E97" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F97" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5253996/52539969367.20250117181220.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>헬리녹스 헬리녹스 비브람 볼핏 T-2</v>
+      </c>
+      <c r="B98" t="str">
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D98" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E98" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F98" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5289517/52895172890.20250208180645.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>헬리녹스 테이블원 홈 머스타드</v>
+      </c>
+      <c r="B99">
+        <v>845</v>
+      </c>
+      <c r="C99" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D99" t="str">
+        <v>table</v>
+      </c>
+      <c r="E99" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F99" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319004/53190043155.20250224135656.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>헬리녹스 데이지 체인 15904</v>
+      </c>
+      <c r="B100" t="str">
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D100" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E100" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F100" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4484142/44841424077.20240329062711.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>헬리녹스 택티컬 체어 멀티캠</v>
+      </c>
+      <c r="B101">
+        <v>910</v>
+      </c>
+      <c r="C101" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D101" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E101" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F101" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4086617/40866173633.20230628181412.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>헬리녹스 15주년 시에라컵 티타늄 레인보우 480ml, 레인보우</v>
+      </c>
+      <c r="B102">
+        <v>70</v>
+      </c>
+      <c r="C102" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D102" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E102" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F102" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5309545/53095453276.20250219124856.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Helinox 헬리녹스 야외 침대 코트 원 컨버터블 인슐레이티드 BK 캠프 1822189</v>
+      </c>
+      <c r="B103" t="str">
+        <v/>
+      </c>
+      <c r="C103" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D103" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E103" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F103" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5268829/52688293010.20250128002235.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>헬리녹스 알파인돔 1.5p 블랙아웃에디션 1인용</v>
+      </c>
+      <c r="B104">
+        <v>1840</v>
+      </c>
+      <c r="C104" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D104" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E104" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F104" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1957124/19571241131.20190531150232.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>헬리녹스 나이키 SNKRS 라운지 수베니어 다이넥스 머그</v>
+      </c>
+      <c r="B105" t="str">
+        <v/>
+      </c>
+      <c r="C105" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D105" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E105" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F105" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5201121/52011214618.20241218123901.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>헬리녹스 비브람 볼핏 미끄럼방지 체어고무발 마모방지 체어악세사리 T1 Camo</v>
+      </c>
+      <c r="B106" t="str">
+        <v/>
+      </c>
+      <c r="C106" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D106" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E106" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F106" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5091573/50915738081.20241019015417.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>헬리녹스 베이프 로얄박스 쉐이드 카모</v>
+      </c>
+      <c r="B107">
+        <v>2995</v>
+      </c>
+      <c r="C107" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D107" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E107" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F107" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5285508/52855080406.20250206123203.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>헬리녹스 X 네이탈 디자인 선셋 체어 네이탈스트라이프</v>
+      </c>
+      <c r="B108" t="str">
+        <v/>
+      </c>
+      <c r="C108" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D108" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E108" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F108" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5341129/53411295423.20250307121901.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>헬리녹스 15주년 토르 0.35L, 글로우블루</v>
+      </c>
+      <c r="B109">
+        <v>65</v>
+      </c>
+      <c r="C109" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D109" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E109" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F109" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5237910/52379109619.20250108105939.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>헬리녹스 프라그먼트 디자인 사이드 테이블 S 블랙네이비</v>
+      </c>
+      <c r="B110">
+        <v>320</v>
+      </c>
+      <c r="C110" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D110" t="str">
+        <v>table</v>
+      </c>
+      <c r="E110" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F110" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5238176/52381765619.20250108153845.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Helinox 헬리녹스 야외 코트 레그 캠프 12PCS 1822193</v>
+      </c>
+      <c r="B111" t="str">
+        <v/>
+      </c>
+      <c r="C111" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D111" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E111" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F111" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307625/53076254105.20250221114443.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>헬리녹스 택티컬 테이블 스토리지 포켓</v>
+      </c>
+      <c r="B112" t="str">
+        <v/>
+      </c>
+      <c r="C112" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D112" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E112" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F112" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4021083/40210838563.20230524191658.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>헬리녹스 프라그먼트 디자인 택티컬 브이타프 4.0 6-8인용 블랙네이비</v>
+      </c>
+      <c r="B113">
+        <v>12700</v>
+      </c>
+      <c r="C113" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D113" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E113" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F113" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5280130/52801305823.20250204183725.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>헬리녹스 코트원 컨버터블</v>
+      </c>
+      <c r="B114" t="str">
+        <v/>
+      </c>
+      <c r="C114" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D114" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E114" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F114" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4061566/40615669110.20230628001100.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>헬리녹스 코트맥스 컨버터블 레그 미포함 10640R1</v>
+      </c>
+      <c r="B115" t="str">
+        <v/>
+      </c>
+      <c r="C115" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D115" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E115" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F115" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4601655/46016554962.20240226071517.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>헬리녹스 카페 테이블</v>
+      </c>
+      <c r="B116">
+        <v>4000</v>
+      </c>
+      <c r="C116" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D116" t="str">
+        <v>table</v>
+      </c>
+      <c r="E116" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F116" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400525/34005254618.20220812085221.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>헬리녹스 카페 체어 홈</v>
+      </c>
+      <c r="B117">
+        <v>1600</v>
+      </c>
+      <c r="C117" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D117" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E117" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F117" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3728671/37286718619.20230118161513.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>헬리녹스 택티컬 테이블 S 폴리지 그린/코요테 탄</v>
+      </c>
+      <c r="B118" t="str">
+        <v/>
+      </c>
+      <c r="C118" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D118" t="str">
+        <v>table</v>
+      </c>
+      <c r="E118" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F118" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_1406899/14068993142.20190805151018.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>헬리녹스 데이지 체인 2 5m 4m - 소품걸이 ML827851</v>
+      </c>
+      <c r="B119" t="str">
+        <v/>
+      </c>
+      <c r="C119" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D119" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E119" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F119" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4600001/46000015288.20240224170035.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Helinox 헬리녹스 코트 원 워머 야전침대커버 침낭커버 양면사용</v>
+      </c>
+      <c r="B120" t="str">
+        <v/>
+      </c>
+      <c r="C120" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D120" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E120" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F120" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4435699/44356995744.20231201005201.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>헬리녹스 X 10 CC 패턴 테이블 오 블랙</v>
+      </c>
+      <c r="B121" t="str">
+        <v/>
+      </c>
+      <c r="C121" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D121" t="str">
+        <v>table</v>
+      </c>
+      <c r="E121" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F121" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5305650/53056505874.20250217121055.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 M 멀티캠</v>
+      </c>
+      <c r="B122" t="str">
+        <v/>
+      </c>
+      <c r="C122" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D122" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E122" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F122" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5003342/50033427010.20240829130147.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>헬리녹스 15주년 에이치쉑 3.5P 텐트 4인용</v>
+      </c>
+      <c r="B123">
+        <v>5520</v>
+      </c>
+      <c r="C123" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D123" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E123" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F123" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5002488/50024885618.20240828100251.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>헬리녹스 벨크로타이 프레임 결속용 타이</v>
+      </c>
+      <c r="B124" t="str">
+        <v/>
+      </c>
+      <c r="C124" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D124" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E124" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F124" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3877891/38778913341.20230320110302.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>헬리녹스 데우스 엑스 마키나 반합</v>
+      </c>
+      <c r="B125" t="str">
+        <v/>
+      </c>
+      <c r="C125" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D125" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E125" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F125" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4974010/49740108619.20240812155742.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>헬리녹스 코트 레그 16pcs</v>
+      </c>
+      <c r="B126" t="str">
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D126" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E126" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F126" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4062245/40622451732.20230616153812.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블</v>
+      </c>
+      <c r="B127" t="str">
+        <v/>
+      </c>
+      <c r="C127" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D127" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E127" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F127" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5017679/50176794740.20240905194344.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>헬리녹스 택티컬 필드 터널 이너텐트 2인용</v>
+      </c>
+      <c r="B128">
+        <v>2040</v>
+      </c>
+      <c r="C128" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D128" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E128" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F128" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4730545/47305456618.20240425152040.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>헬리녹스 Helinox Eco Bag 에코백 아웃도어 캠핑 반다나</v>
+      </c>
+      <c r="B129" t="str">
+        <v/>
+      </c>
+      <c r="C129" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D129" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E129" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F129" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4936534/49365341587.20241105063313.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>헬리녹스 코트 맥스 캠핑 다리 익스텐더 16개 세트</v>
+      </c>
+      <c r="B130" t="str">
+        <v/>
+      </c>
+      <c r="C130" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D130" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E130" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F130" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3861068/38610687926.20240212204552.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>헬리녹스 택티컬 코트 솔로 이너 텐트 메쉬 1인용 플라이 미포함</v>
+      </c>
+      <c r="B131">
+        <v>1590</v>
+      </c>
+      <c r="C131" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D131" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E131" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F131" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3192471/31924712625.20220420130539.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블 야전침대 멀티캠</v>
+      </c>
+      <c r="B132" t="str">
+        <v/>
+      </c>
+      <c r="C132" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D132" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E132" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F132" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5259435/52594351321.20250121121445.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>헬리녹스 데이지 체인 1 5-2 5</v>
+      </c>
+      <c r="B133" t="str">
+        <v/>
+      </c>
+      <c r="C133" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D133" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E133" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F133" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4699078/46990780277.20240411143530.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>헬리녹스 비브람 볼핏 Type-2</v>
+      </c>
+      <c r="B134" t="str">
+        <v/>
+      </c>
+      <c r="C134" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D134" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E134" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F134" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3931780/39317803972.20230411160447.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>헬리녹스 몰리 클립 2ea set</v>
+      </c>
+      <c r="B135" t="str">
+        <v/>
+      </c>
+      <c r="C135" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D135" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E135" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F135" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3605581/36055812768.20221124054323.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>헬리녹스 폴딩토트백</v>
+      </c>
+      <c r="B136" t="str">
+        <v/>
+      </c>
+      <c r="C136" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D136" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E136" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F136" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361867/33618679619.20220721164254.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>헬리녹스 코트 원 하이 15 콤팩트 접을 수 캠핑용 레귤러 Regular</v>
+      </c>
+      <c r="B137" t="str">
+        <v/>
+      </c>
+      <c r="C137" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D137" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E137" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F137" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3445863/34458639930.20241025195556.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>헬리녹스 선셋 체어 블루 반다나 퀄트</v>
+      </c>
+      <c r="B138">
+        <v>1450</v>
+      </c>
+      <c r="C138" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D138" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E138" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F138" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4086613/40866137624.20230628160831.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>헬리녹스 코트원 컨버터블 반다나 퀼트</v>
+      </c>
+      <c r="B139" t="str">
+        <v/>
+      </c>
+      <c r="C139" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D139" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E139" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F139" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4410931/44109317602.20231118220140.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 톨 S 멀티캠</v>
+      </c>
+      <c r="B140" t="str">
+        <v/>
+      </c>
+      <c r="C140" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D140" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E140" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F140" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3453772/34537720220.20230519090544.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>헬리녹스 필슨 테이블원 하드탑 오터그린</v>
+      </c>
+      <c r="B141">
+        <v>900</v>
+      </c>
+      <c r="C141" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D141" t="str">
+        <v>table</v>
+      </c>
+      <c r="E141" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F141" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5285619/52856198186.20250206143725.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>헬리녹스 비브람 볼핏 T-1 타입 1 체어소품 전용케이스</v>
+      </c>
+      <c r="B142" t="str">
+        <v/>
+      </c>
+      <c r="C142" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D142" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E142" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F142" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2978403/29784038986.20230826112923.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>헬리녹스 스토퍼 4 10ea set</v>
+      </c>
+      <c r="B143" t="str">
+        <v/>
+      </c>
+      <c r="C143" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D143" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E143" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F143" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3590684/35906845576.20221117110236.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Helinox 헬리녹스 아웃도어 코트원 컨버터블 코요테탄 CTN 1822170</v>
+      </c>
+      <c r="B144" t="str">
+        <v/>
+      </c>
+      <c r="C144" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D144" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E144" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F144" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3262641/32626417793.20240913080944.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>헬리녹스 에어 헤드레스트</v>
+      </c>
+      <c r="B145" t="str">
+        <v/>
+      </c>
+      <c r="C145" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D145" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E145" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F145" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2402264/24022647526.20200903124423.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>헬리녹스 DAC 타프폴 3000ADJ</v>
+      </c>
+      <c r="B146" t="str">
+        <v/>
+      </c>
+      <c r="C146" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D146" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E146" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F146" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3397794/33977948695.20220810114554.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>헬리녹스 스트링 4 20m</v>
+      </c>
+      <c r="B147" t="str">
+        <v/>
+      </c>
+      <c r="C147" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D147" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E147" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F147" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3576572/35765721956.20221111064258.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>헬리녹스 에어 헤드레스트 캠핑 베개 필로우</v>
+      </c>
+      <c r="B148" t="str">
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D148" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E148" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F148" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4180031/41800315665.20230811064556.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>헬리녹스 노나돔 4.0 베드룸 3-4인용</v>
+      </c>
+      <c r="B149">
+        <v>3900</v>
+      </c>
+      <c r="C149" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D149" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E149" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F149" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393645/33936454623.20220808175055.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>헬리녹스 라이트 간이침대 초경량 컴팩트 접이식 휴대용 캠핑용 침대</v>
+      </c>
+      <c r="B150" t="str">
+        <v/>
+      </c>
+      <c r="C150" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D150" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E150" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F150" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3170605/31706057014.20240623064808.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>헬리녹스 Helinox 코트원 컨버터블 BK 캠핑 가구 침대 침낭 침구 1822170</v>
+      </c>
+      <c r="B151" t="str">
+        <v/>
+      </c>
+      <c r="C151" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D151" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E151" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F151" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3264371/32643713891.20241011110104.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블 코요테 탄</v>
+      </c>
+      <c r="B152" t="str">
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D152" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E152" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F152" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4357859/43578597699.20240406050348.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>헬리녹스 타프폴 1800DL</v>
+      </c>
+      <c r="B153" t="str">
+        <v/>
+      </c>
+      <c r="C153" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D153" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E153" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F153" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4898214/48982142775.20240707144131.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 슬림 수납 부착 파우치 필드 오피스</v>
+      </c>
+      <c r="B154" t="str">
+        <v/>
+      </c>
+      <c r="C154" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D154" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E154" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F154" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5343194/53431947756.20250309114841.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>헬리녹스 체어원 블루 반다나 퀼트</v>
+      </c>
+      <c r="B155">
+        <v>960</v>
+      </c>
+      <c r="C155" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D155" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E155" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F155" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4134124/41341242619.20230721170730.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블</v>
+      </c>
+      <c r="B156" t="str">
+        <v/>
+      </c>
+      <c r="C156" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D156" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E156" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F156" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5022498/50224985412.20240909021900.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>헬리녹스 타프폴 케이스</v>
+      </c>
+      <c r="B157" t="str">
+        <v/>
+      </c>
+      <c r="C157" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D157" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E157" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F157" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5170661/51706619996.20241202004826.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>헬리녹스 헬리녹스 COT Fleece 롱 야전침대 매트 코트맥스 커버 시트 워머 가방</v>
+      </c>
+      <c r="B158" t="str">
+        <v/>
+      </c>
+      <c r="C158" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D158" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E158" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F158" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4959358/49593580073.20241225155359.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Helinox 헬리녹스 테이블 사이드 스토리지 사이즈 19752019001000</v>
+      </c>
+      <c r="B159" t="str">
+        <v/>
+      </c>
+      <c r="C159" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D159" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E159" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F159" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4449962/44499621960.20240310220353.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>헬리녹스 네이버후드 카페 테이블</v>
+      </c>
+      <c r="B160">
+        <v>4000</v>
+      </c>
+      <c r="C160" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D160" t="str">
+        <v>table</v>
+      </c>
+      <c r="E160" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F160" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5197787/51977878620.20241216172206.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>DAC 헬리녹스 블랙아웃에디션 볼핏 타입 1 45mm</v>
+      </c>
+      <c r="B161" t="str">
+        <v/>
+      </c>
+      <c r="C161" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D161" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E161" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F161" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393237/33932372621.20220808145612.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>헬리녹스 택티컬 필드 더플 60 캠핑수납가방</v>
+      </c>
+      <c r="B162" t="str">
+        <v/>
+      </c>
+      <c r="C162" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D162" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E162" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F162" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3539908/35399085984.20221023100445.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>헬리녹스 코트 원 커버 양면 캠핑 침대 197550410</v>
+      </c>
+      <c r="B163" t="str">
+        <v/>
+      </c>
+      <c r="C163" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D163" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E163" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F163" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4311846/43118462455.20231010120843.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블 멀티캠 MULTICAM</v>
+      </c>
+      <c r="B164" t="str">
+        <v/>
+      </c>
+      <c r="C164" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D164" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E164" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F164" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3618672/36186724903.20221201034441.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>헬리녹스 택티컬 테이블 사이드 스토리지 M 멀티캠</v>
+      </c>
+      <c r="B165" t="str">
+        <v/>
+      </c>
+      <c r="C165" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D165" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E165" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F165" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4135969/41359691409.20230723095845.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>헬리녹스 제이스테이크 S 10pcs</v>
+      </c>
+      <c r="B166" t="str">
+        <v/>
+      </c>
+      <c r="C166" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D166" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E166" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F166" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3571244/35712440852.20230617070127.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>헬리녹스 실리콘 매트 미디움 감성캠핑 테이블</v>
+      </c>
+      <c r="B167" t="str">
+        <v/>
+      </c>
+      <c r="C167" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D167" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E167" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F167" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3471914/34719140501.20230223204546.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>헬리녹스 에어폼 헤드레스트</v>
+      </c>
+      <c r="B168" t="str">
+        <v/>
+      </c>
+      <c r="C168" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D168" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E168" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F168" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400455/34004558623.20220812092236.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>헬리녹스 라이트 코트</v>
+      </c>
+      <c r="B169" t="str">
+        <v/>
+      </c>
+      <c r="C169" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D169" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E169" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F169" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2383574/23835740522.20200820101815.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>헬리녹스 슬링백 캠핑 멀티백 감성캠핑 가방</v>
+      </c>
+      <c r="B170" t="str">
+        <v/>
+      </c>
+      <c r="C170" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D170" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E170" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F170" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4699595/46995956185.20240411191222.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>헬리녹스 비브람 볼핏 Helinox Vibram Ball Feet 631211</v>
+      </c>
+      <c r="B171" t="str">
+        <v/>
+      </c>
+      <c r="C171" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D171" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E171" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F171" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3498538/34985380150.20240824031500.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>헬리녹스 오거나이저 FOR 타프폴</v>
+      </c>
+      <c r="B172" t="str">
+        <v/>
+      </c>
+      <c r="C172" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D172" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E172" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F172" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5176498/51764985051.20250306063107.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>헬리녹스 필드오피스 이너파우치 세트 필드오피스 악세서리</v>
+      </c>
+      <c r="B173" t="str">
+        <v/>
+      </c>
+      <c r="C173" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D173" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E173" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F173" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5303376/53033765041.20250215214024.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>헬리녹스 의자 원 오리지널 가볍고 컴팩트하며 접을 수 캠핑</v>
+      </c>
+      <c r="B174" t="str">
+        <v/>
+      </c>
+      <c r="C174" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D174" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E174" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F174" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4504219/45042198629.20240601101514.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>헬리녹스 택티컬 필드 테이블 상판</v>
+      </c>
+      <c r="B175" t="str">
+        <v/>
+      </c>
+      <c r="C175" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D175" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E175" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F175" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3319725/33197255451.20230712105951.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>네이버후드 x 헬리녹스 x 크레모아 울트라 3 0 S A-란타넘 내츄럴 - 221PRPXN-AC01</v>
+      </c>
+      <c r="B176" t="str">
+        <v/>
+      </c>
+      <c r="C176" t="str">
+        <v>lantern</v>
+      </c>
+      <c r="D176" t="str">
+        <v>lantern</v>
+      </c>
+      <c r="E176" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F176" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4130623/41306234754.20231117020419.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블 밀리터리올리브</v>
+      </c>
+      <c r="B177" t="str">
+        <v/>
+      </c>
+      <c r="C177" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D177" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E177" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F177" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4813580/48135806044.20250222165051.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>헬리녹스 퀵 커넥터 4개</v>
+      </c>
+      <c r="B178" t="str">
+        <v/>
+      </c>
+      <c r="C178" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D178" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E178" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F178" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4600132/46001320974.20240224184842.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>헬리녹스 벨크로타이</v>
+      </c>
+      <c r="B179" t="str">
+        <v/>
+      </c>
+      <c r="C179" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D179" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E179" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F179" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4224928/42249287394.20240426214129.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>네이버후드 x 헬리녹스 x 크레모아 A-멀티 파일 드라이버 - 221PRPXN-AC03</v>
+      </c>
+      <c r="B180" t="str">
+        <v/>
+      </c>
+      <c r="C180" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D180" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E180" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F180" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3321236/33212366843.20240715210832.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>알데바란 헬리녹스 테이블용 엣지패드 L</v>
+      </c>
+      <c r="B181">
+        <v>810</v>
+      </c>
+      <c r="C181" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D181" t="str">
+        <v>table</v>
+      </c>
+      <c r="E181" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F181" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3393290/33932904624.20220808145812.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>헬리녹스 택티컬 테이블 M 블랙</v>
+      </c>
+      <c r="B182">
+        <v>935.5</v>
+      </c>
+      <c r="C182" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D182" t="str">
+        <v>table</v>
+      </c>
+      <c r="E182" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F182" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2088944/20889442263.20190917104121.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>헬리녹스 택티컬 테이블 사이드 스토리지 M 밀리터리올리브</v>
+      </c>
+      <c r="B183" t="str">
+        <v/>
+      </c>
+      <c r="C183" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D183" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E183" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F183" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4410929/44109293529.20231118214557.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>헬리녹스 캠핑코트용 코트 워머 단열층</v>
+      </c>
+      <c r="B184" t="str">
+        <v/>
+      </c>
+      <c r="C184" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D184" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E184" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F184" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4959725/49597254958.20240804003518.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>헬리녹스 Helinox 아웃도어 코트 맥스 컨버터블 캠프 1822175</v>
+      </c>
+      <c r="B185" t="str">
+        <v/>
+      </c>
+      <c r="C185" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D185" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E185" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F185" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4071095/40710958330.20241028005027.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>헬리녹스 택티컬 필드 오피스 M 테이블</v>
+      </c>
+      <c r="B186">
+        <v>2120</v>
+      </c>
+      <c r="C186" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D186" t="str">
+        <v>table</v>
+      </c>
+      <c r="E186" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F186" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3733629/37336296620.20230120111620.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>헬리녹스 사이드 테이블 M</v>
+      </c>
+      <c r="B187">
+        <v>560</v>
+      </c>
+      <c r="C187" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D187" t="str">
+        <v>table</v>
+      </c>
+      <c r="E187" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F187" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5103350/51033502620.20241025150638.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>헬리녹스 Helinox 그라운드 시트 사바나 의자 BK 47 47 cm 1822214</v>
+      </c>
+      <c r="B188" t="str">
+        <v/>
+      </c>
+      <c r="C188" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D188" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E188" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F188" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3573443/35734437595.20221109213705.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 슬림 S 멀티캠</v>
+      </c>
+      <c r="B189" t="str">
+        <v/>
+      </c>
+      <c r="C189" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D189" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E189" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F189" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3598049/35980492477.20230613233146.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>헬리녹스 하이 코트 HDB 3 4kg 최대 하중 145kg 펠리칸</v>
+      </c>
+      <c r="B190" t="str">
+        <v/>
+      </c>
+      <c r="C190" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D190" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E190" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F190" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5176489/51764898419.20241206195117.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>헬리녹스 Aend 스테인리스 시에라컵 480ml</v>
+      </c>
+      <c r="B191" t="str">
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D191" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E191" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F191" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4997090/49970905624.20240826180938.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>헬리녹스 카페 키츠네 카페 테이블</v>
+      </c>
+      <c r="B192">
+        <v>4050</v>
+      </c>
+      <c r="C192" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D192" t="str">
+        <v>table</v>
+      </c>
+      <c r="E192" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F192" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5146458/51464581619.20241118155139.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>헬리녹스 코트원 컨버터블 멀티 블록 택티컬 필드테이블 색상랜덤</v>
+      </c>
+      <c r="B193" t="str">
+        <v/>
+      </c>
+      <c r="C193" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D193" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E193" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F193" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5090033/50900337140.20250307024726.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>헬리녹스 데칼스티커 S</v>
+      </c>
+      <c r="B194" t="str">
+        <v/>
+      </c>
+      <c r="C194" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D194" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E194" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F194" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4981267/49812677973.20240816162412.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>헬리녹스 로얄 박스 휴대용 햇빛 가리개 해변 쉼터 샌드 케이스</v>
+      </c>
+      <c r="B195" t="str">
+        <v/>
+      </c>
+      <c r="C195" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D195" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E195" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F195" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4557117/45571176326.20240208030553.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>헬리녹스 벤치원 타이다이</v>
+      </c>
+      <c r="B196">
+        <v>2100</v>
+      </c>
+      <c r="C196" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D196" t="str">
+        <v>chair</v>
+      </c>
+      <c r="E196" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F196" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3248567/32485670621.20220520164336.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>헬리녹스 x 네이버후드 테이블 사이드 스토리지 S 카모플라주 241HXHXN-AC04</v>
+      </c>
+      <c r="B197" t="str">
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D197" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E197" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F197" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5050723/50507234688.20240927094550.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>헬리녹스 볼핏 미끄럼방지 체어고무발 마모방지 체어악세사리 TYPE-1</v>
+      </c>
+      <c r="B198" t="str">
+        <v/>
+      </c>
+      <c r="C198" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D198" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E198" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F198" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4610566/46105660760.20240229181334.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 S 밀리터리올리브</v>
+      </c>
+      <c r="B199" t="str">
+        <v/>
+      </c>
+      <c r="C199" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D199" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E199" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F199" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5080912/50809124910.20241013133922.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>헬리녹스 테이블원 엑스레이 타이거 카모</v>
+      </c>
+      <c r="B200">
+        <v>690</v>
+      </c>
+      <c r="C200" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D200" t="str">
+        <v>table</v>
+      </c>
+      <c r="E200" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F200" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5134360/51343601619.20241111164346.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>헬리녹스 사바나 그라운드 시트</v>
+      </c>
+      <c r="B201" t="str">
+        <v/>
+      </c>
+      <c r="C201" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D201" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E201" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F201" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5140428/51404284472.20241114215906.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>헬리녹스 코트 레그 12개 Helinox Cot Legs 12pcs 631125</v>
+      </c>
+      <c r="B202" t="str">
+        <v/>
+      </c>
+      <c r="C202" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D202" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E202" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F202" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3824855/38248558536.20241007013225.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>헬리녹스 코트원 컨버터블 택티컬 필드테이블 색상랜덤</v>
+      </c>
+      <c r="B203" t="str">
+        <v/>
+      </c>
+      <c r="C203" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D203" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E203" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F203" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339555/53395559392.20250307011314.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>헬리녹스 택티컬 테이블 사이드 스토리지 M 멀티캠</v>
+      </c>
+      <c r="B204" t="str">
+        <v/>
+      </c>
+      <c r="C204" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D204" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E204" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F204" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4062190/40621901414.20230615194535.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>헬리녹스 아웃도어 가방 스토리지 박스 1822253</v>
+      </c>
+      <c r="B205" t="str">
+        <v/>
+      </c>
+      <c r="C205" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D205" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E205" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F205" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4382002/43820028150.20241114045037.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>헬리녹스 15주년 코트원 컨버터블</v>
+      </c>
+      <c r="B206" t="str">
+        <v/>
+      </c>
+      <c r="C206" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D206" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E206" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F206" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4875087/48750870082.20240629083306.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>헬리녹스 테이블 원 경량 접이식 휴대용 야외 캠핑</v>
+      </c>
+      <c r="B207" t="str">
+        <v/>
+      </c>
+      <c r="C207" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D207" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E207" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F207" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4600190/46001906314.20240224200525.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>헬리녹스 코트원 컨버터블 코요테탄 택티컬 필드테이블 색상랜덤</v>
+      </c>
+      <c r="B208" t="str">
+        <v/>
+      </c>
+      <c r="C208" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D208" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E208" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F208" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339550/53395506170.20250307030703.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>헬리녹스 볼핏 미끄럼방지 체어고무발 마모방지 체어악세사리 TYPE-1</v>
+      </c>
+      <c r="B209" t="str">
+        <v/>
+      </c>
+      <c r="C209" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D209" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E209" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F209" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4614204/46142040338.20240302175623.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Helinox 헬리녹스 코트 원 경량 컴팩트 접이식 휴대용 캠핑 레귤러</v>
+      </c>
+      <c r="B210" t="str">
+        <v/>
+      </c>
+      <c r="C210" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D210" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E210" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F210" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5035969/50359693945.20240917181654.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>헬리녹스 택티컬 테이블 사이드 스토리지</v>
+      </c>
+      <c r="B211" t="str">
+        <v/>
+      </c>
+      <c r="C211" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D211" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E211" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F211" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3583534/35835342724.20221114194402.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>헬리녹스 힐레베르그 다이넥스 머그</v>
+      </c>
+      <c r="B212">
+        <v>76.5</v>
+      </c>
+      <c r="C212" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D212" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E212" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F212" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5201080/52010804619.20241218122952.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>헬리녹스 간이침대 원 경량 컴팩트 접이식 휴대용 캠핑용 침대 일반 코요태 탄</v>
+      </c>
+      <c r="B213" t="str">
+        <v/>
+      </c>
+      <c r="C213" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D213" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E213" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F213" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4576908/45769083547.20240211195036.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>헬리녹스 택티컬 필드 오피스 M</v>
+      </c>
+      <c r="B214" t="str">
+        <v/>
+      </c>
+      <c r="C214" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D214" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E214" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F214" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3389012/33890128701.20250110035921.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>헬리녹스 코트 맥스 경량 컴팩트 접이식 휴대용 캠핑용</v>
+      </c>
+      <c r="B215" t="str">
+        <v/>
+      </c>
+      <c r="C215" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D215" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E215" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F215" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4459018/44590182346.20231211213936.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>헬리녹스 택티컬 사이드 스토리지 톨 S 멀티캠</v>
+      </c>
+      <c r="B216" t="str">
+        <v/>
+      </c>
+      <c r="C216" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D216" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E216" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F216" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5316524/53165247550.20250224154638.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>헬리녹스 데이지 체인 1 5-2 5</v>
+      </c>
+      <c r="B217" t="str">
+        <v/>
+      </c>
+      <c r="C217" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D217" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E217" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F217" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3824130/38241306070.20230225101458.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>헬리녹스 타프폴 3000ADJ</v>
+      </c>
+      <c r="B218" t="str">
+        <v/>
+      </c>
+      <c r="C218" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D218" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E218" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F218" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4857920/48579205191.20240620180650.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>헬리녹스 코트 레그 MAX 16PCS</v>
+      </c>
+      <c r="B219" t="str">
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D219" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E219" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F219" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3876722/38767223693.20230319204825.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블 덕카모</v>
+      </c>
+      <c r="B220" t="str">
+        <v/>
+      </c>
+      <c r="C220" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D220" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E220" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F220" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5167603/51676038737.20241129191939.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>헬리녹스 Helinox 코트원 Home 컨버터블 아웃도어 침구 19750036058000</v>
+      </c>
+      <c r="B221" t="str">
+        <v/>
+      </c>
+      <c r="C221" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D221" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E221" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F221" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5005174/50051748681.20241229100622.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>헬리녹스 컵홀더 플라스틱</v>
+      </c>
+      <c r="B222" t="str">
+        <v/>
+      </c>
+      <c r="C222" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D222" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E222" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F222" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4849106/48491063569.20250307063002.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>HJ 헬리녹스 헬리녹스 스토리지 박스 S 반다나 퀼트</v>
+      </c>
+      <c r="B223" t="str">
+        <v/>
+      </c>
+      <c r="C223" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D223" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E223" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F223" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5101884/51018849632.20241024205528.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>헬리녹스 헬리녹스 하이 코트 원 야전 침대 10686</v>
+      </c>
+      <c r="B224" t="str">
+        <v/>
+      </c>
+      <c r="C224" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D224" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E224" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F224" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5250997/52509971247.20250115220741.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>헬리녹스 볼핏 블랙 미끄럼방지 체어고무발 마모방지 체어악세사리</v>
+      </c>
+      <c r="B225" t="str">
+        <v/>
+      </c>
+      <c r="C225" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D225" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E225" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F225" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2866047/28660479196.20230218082943.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>헬리녹스 코트원 컨버터블 블랙아웃에디션</v>
+      </c>
+      <c r="B226" t="str">
+        <v/>
+      </c>
+      <c r="C226" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D226" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E226" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F226" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5267689/52676892760.20250202085444.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>헬리녹스 플리스 코트 워머 단열 레이어 캠핑 롱</v>
+      </c>
+      <c r="B227" t="str">
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D227" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E227" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F227" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5040458/50404587109.20240920201645.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>헬리녹스 폴딩 토트 Folding Tote 19755032001000</v>
+      </c>
+      <c r="B228" t="str">
+        <v/>
+      </c>
+      <c r="C228" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D228" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E228" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F228" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4314991/43149915724.20250226071250.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>헬리녹스 실리콘 매트 라지</v>
+      </c>
+      <c r="B229">
+        <v>420</v>
+      </c>
+      <c r="C229" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D229" t="str">
+        <v>table</v>
+      </c>
+      <c r="E229" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F229" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3400512/34005126624.20220815100513.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>헬리녹스 트레킹폴 케이스 라지</v>
+      </c>
+      <c r="B230" t="str">
+        <v/>
+      </c>
+      <c r="C230" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D230" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E230" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F230" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3804692/38046928869.20240205053226.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>헬리녹스 x 네이버후드 실리콘 매트 - 22FW 36327 222HXHXN-AC04</v>
+      </c>
+      <c r="B231" t="str">
+        <v/>
+      </c>
+      <c r="C231" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D231" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E231" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F231" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4137231/41372312093.20231128022634.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>헬리녹스 택티컬 코트 컨버터블</v>
+      </c>
+      <c r="B232" t="str">
+        <v/>
+      </c>
+      <c r="C232" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D232" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E232" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F232" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3082765/30827651342.20250226102241.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>헬리녹스 오발탑 테이블 상판</v>
+      </c>
+      <c r="B233">
+        <v>1630</v>
+      </c>
+      <c r="C233" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D233" t="str">
+        <v>table</v>
+      </c>
+      <c r="E233" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F233" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3361303/33613037618.20220721100806.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>헬리녹스 벨크로타이</v>
+      </c>
+      <c r="B234" t="str">
+        <v/>
+      </c>
+      <c r="C234" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D234" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E234" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F234" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4598458/45984581882.20240223200734.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>헬리녹스 나이키 ACG 다이넥스 머그</v>
+      </c>
+      <c r="B235" t="str">
+        <v/>
+      </c>
+      <c r="C235" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="D235" t="str">
+        <v>cooking</v>
+      </c>
+      <c r="E235" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F235" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5201121/52011212620.20241218141035.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>헬리녹스 퍼스널 쉐이드 코요테 탄 프레임 미포함 15707 15707R1</v>
+      </c>
+      <c r="B236" t="str">
+        <v/>
+      </c>
+      <c r="C236" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D236" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E236" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F236" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4440947/44409472262.20231203231948.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>헬리녹스 타프폴 1800DL</v>
+      </c>
+      <c r="B237" t="str">
+        <v/>
+      </c>
+      <c r="C237" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D237" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E237" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F237" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3874091/38740919608.20230318103631.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>헬리녹스 의자 제로 초경량 컴팩트 캠핑</v>
+      </c>
+      <c r="B238" t="str">
+        <v/>
+      </c>
+      <c r="C238" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D238" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E238" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F238" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5270088/52700885984.20250128215815.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>헬리녹스 제이스테이크 J-Stake 10pcs</v>
+      </c>
+      <c r="B239" t="str">
+        <v/>
+      </c>
+      <c r="C239" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D239" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E239" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F239" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3594319/35943197335.20230617082200.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>헬리녹스 HELINOX 스토리지 박스 아웃도어 캠핑 수납가방 1822253</v>
+      </c>
+      <c r="B240" t="str">
+        <v/>
+      </c>
+      <c r="C240" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D240" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E240" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F240" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5133107/51331079407.20241111162541.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>헬리녹스 코트원 컨버터블 블랙아웃에디션</v>
+      </c>
+      <c r="B241" t="str">
+        <v/>
+      </c>
+      <c r="C241" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D241" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E241" t="str">
+        <v>헬리녹스</v>
+      </c>
+      <c r="F241" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5266423/52664238963.20250125215704.jpg?type=f640</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F241"/>
   </ignoredErrors>
 </worksheet>
 </file>